--- a/extensions/dVMP-JournalExtension-July2016/doc-Experiments/Results-GPS-BBC.xlsx
+++ b/extensions/dVMP-JournalExtension-July2016/doc-Experiments/Results-GPS-BBC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BCC-1000" sheetId="1" r:id="rId1"/>
@@ -2661,13 +2661,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138706680"/>
-        <c:axId val="2087297480"/>
+        <c:axId val="2140071608"/>
+        <c:axId val="2137425160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138706680"/>
+        <c:axId val="2140071608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2675,12 +2676,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087297480"/>
+        <c:crossAx val="2137425160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087297480"/>
+        <c:axId val="2137425160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,7 +2692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138706680"/>
+        <c:crossAx val="2140071608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3194,13 +3195,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101760472"/>
-        <c:axId val="2101748552"/>
+        <c:axId val="2138515592"/>
+        <c:axId val="2138518552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2101760472"/>
+        <c:axId val="2138515592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3208,14 +3210,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101748552"/>
+        <c:crossAx val="2138518552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101748552"/>
+        <c:axId val="2138518552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-1.65E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3224,7 +3227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101760472"/>
+        <c:crossAx val="2138515592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4035,13 +4038,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102176280"/>
-        <c:axId val="2104387624"/>
+        <c:axId val="2136936840"/>
+        <c:axId val="2138445704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102176280"/>
+        <c:axId val="2136936840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4049,14 +4053,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104387624"/>
+        <c:crossAx val="2138445704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104387624"/>
+        <c:axId val="2138445704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4065,7 +4070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102176280"/>
+        <c:crossAx val="2136936840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9032,13 +9037,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140503176"/>
-        <c:axId val="2140506200"/>
+        <c:axId val="2136640152"/>
+        <c:axId val="2136390056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140503176"/>
+        <c:axId val="2136640152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9046,12 +9052,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140506200"/>
+        <c:crossAx val="2136390056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140506200"/>
+        <c:axId val="2136390056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9062,7 +9068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140503176"/>
+        <c:crossAx val="2136640152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9337,11 +9343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079345320"/>
-        <c:axId val="2079348280"/>
+        <c:axId val="2071086072"/>
+        <c:axId val="2070946280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2079345320"/>
+        <c:axId val="2071086072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9351,12 +9357,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079348280"/>
+        <c:crossAx val="2070946280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2079348280"/>
+        <c:axId val="2070946280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9367,7 +9373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079345320"/>
+        <c:crossAx val="2071086072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9860,13 +9866,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085754760"/>
-        <c:axId val="2085757896"/>
+        <c:axId val="2140957896"/>
+        <c:axId val="2140961032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085754760"/>
+        <c:axId val="2140957896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9874,14 +9881,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085757896"/>
+        <c:crossAx val="2140961032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085757896"/>
+        <c:axId val="2140961032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-1.0E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9890,7 +9898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085754760"/>
+        <c:crossAx val="2140957896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9911,7 +9919,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9922,7 +9930,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9933,7 +9941,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9944,7 +9952,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9955,7 +9963,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9966,7 +9974,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9977,7 +9985,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9209497" cy="5623145"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10004,7 +10012,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9209497" cy="5623145"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10031,7 +10039,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9209497" cy="5623145"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10058,7 +10066,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9209497" cy="5623145"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10085,7 +10093,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9196552" cy="5605517"/>
+    <xdr:ext cx="9209497" cy="5623145"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -17881,7 +17889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY620"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2:AF22"/>
     </sheetView>
   </sheetViews>
